--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,126 +46,123 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>broken</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>short</t>
+    <t>less</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>1</t>
+    <t>used</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -175,7 +172,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>even</t>
+    <t>buy</t>
   </si>
   <si>
     <t>like</t>
@@ -190,12 +187,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
   </si>
   <si>
     <t>friends</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -596,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5">
-        <v>0.7096774193548387</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.7815533980582524</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0.5471698113207547</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7323943661971831</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>0.391304347826087</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7204301075268817</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C9">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>0.3305988515176374</v>
+        <v>0.3360655737704918</v>
       </c>
       <c r="L9">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M9">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6990291262135923</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>0.2826398852223816</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L10">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M10">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6621621621621622</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>0.2655601659751037</v>
+        <v>0.2593360995850623</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6134453781512605</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12">
         <v>0.2583333333333334</v>
@@ -1165,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>0.2108433734939759</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5818181818181818</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>0.1865443425076453</v>
+        <v>0.1773700305810398</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5208333333333334</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15">
         <v>0.1375661375661376</v>
@@ -1315,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>0.108433734939759</v>
+        <v>0.08326029798422437</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>222</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4888888888888889</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,31 +1377,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>0.07280701754385965</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="L17">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="M17">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>1057</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4753623188405797</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,31 +1427,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>181</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18">
-        <v>0.03378817413905133</v>
-      </c>
-      <c r="L18">
-        <v>52</v>
-      </c>
-      <c r="M18">
-        <v>54</v>
-      </c>
-      <c r="N18">
-        <v>0.96</v>
-      </c>
-      <c r="O18">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1487</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.462962962962963</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1461,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4489795918367347</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,7 +1487,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4126984126984127</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C21">
         <v>26</v>
@@ -1535,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1543,13 +1513,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4098360655737705</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1569,13 +1539,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4094488188976378</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1587,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1595,13 +1565,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3894736842105263</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1613,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1621,13 +1591,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3855421686746988</v>
+        <v>0.375</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1639,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1647,13 +1617,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3833333333333334</v>
+        <v>0.34375</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1665,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1673,13 +1643,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.359375</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1691,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>41</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1699,13 +1669,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2985781990521327</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1717,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>148</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1725,13 +1695,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2871287128712871</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1743,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1751,13 +1721,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.28125</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1769,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1777,13 +1747,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2808988764044944</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1795,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1803,13 +1773,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.264957264957265</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1821,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>86</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1829,13 +1799,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2346938775510204</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1847,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1855,13 +1825,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2164948453608248</v>
+        <v>0.185</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1873,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1881,13 +1851,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1949152542372881</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1899,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>95</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1907,13 +1877,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.185</v>
+        <v>0.1795252225519288</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1925,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>163</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1933,13 +1903,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1835443037974684</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C37">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1951,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>258</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1959,13 +1929,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1811594202898551</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1977,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>226</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1985,13 +1955,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.172106824925816</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C39">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2003,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>558</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2011,13 +1981,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1677215189873418</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2029,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2037,13 +2007,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1495327102803738</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2055,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2063,13 +2033,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1494252873563219</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="C42">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2081,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>296</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2089,13 +2059,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1485714285714286</v>
+        <v>0.1235632183908046</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2107,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>149</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2115,13 +2085,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1145374449339207</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C44">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2133,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>402</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2141,13 +2111,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1129032258064516</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2159,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>220</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2167,13 +2137,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1013698630136986</v>
+        <v>0.08239700374531835</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2185,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>328</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2193,13 +2163,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08614232209737828</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2211,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>244</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2219,25 +2189,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.08214285714285714</v>
+        <v>0.06589785831960461</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>257</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2245,25 +2215,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.07755775577557755</v>
+        <v>0.05122494432071269</v>
       </c>
       <c r="C49">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>559</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2271,51 +2241,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0645879732739421</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.02784810126582278</v>
-      </c>
-      <c r="C51">
-        <v>22</v>
-      </c>
-      <c r="D51">
-        <v>26</v>
-      </c>
-      <c r="E51">
-        <v>0.15</v>
-      </c>
-      <c r="F51">
-        <v>0.85</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
